--- a/Programas e insumos/Optimización parámetros/BTC/Prueba F7 y F8/Calibracion TP y SL.xlsx
+++ b/Programas e insumos/Optimización parámetros/BTC/Prueba F7 y F8/Calibracion TP y SL.xlsx
@@ -32,16 +32,16 @@
     <t xml:space="preserve">EST_OPTIMA</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0070201277219988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00187464430559081</t>
+    <t xml:space="preserve">-0.039722769826524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0139858130952644</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805204485556451</t>
+    <t xml:space="preserve">3.23514500451498</t>
   </si>
   <si>
     <t xml:space="preserve">I2R1</t>
@@ -50,211 +50,211 @@
     <t xml:space="preserve">0.25</t>
   </si>
   <si>
-    <t xml:space="preserve">0.614458949911297</t>
+    <t xml:space="preserve">3.87651166618294</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">0.305045080993811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00321154453130157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238028935381629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221879281170052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0834574493540431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00159984691088031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103068474388938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I1R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0858316227786451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.086845159736855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00352729532530174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626994018678819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470713671269885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257390024400088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166705619004477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108974662672777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0936133010435212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00759843872011143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00972836660286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691810559519009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.225585779316249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155682426197718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11214298439151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10259123215136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117431286541636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128820274963131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0294257458935665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0790017601995772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00618222702998826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0259249578333697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0597955556578128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.062638740329816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0233693135827192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0665249414713456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0312939704525884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0298768759890641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00918629347627022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0814342626746595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0446697525882056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18826296942401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0486316234213845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0534238045021808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0160956848819196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0779382856570811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0541193445318808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140090114592909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0616998216924666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0167263984212925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0403561581706657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0172576543714034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0288776182854915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0422692167941366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0206159303574874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00196545513679161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0694572772140151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0290008579182879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02282907841306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00117907888707156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0423538375104947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00718894453400382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112763187937085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0802977828503885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0111118200381394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0162655865017475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0331411852367989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0372540890670726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74666614286417</t>
+    <t xml:space="preserve">1.64101483902086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0220086951791641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08804842803227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81934049226251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13175016429545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0130792703802314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23913807193154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3271975593438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12131287994762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0245858895169844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4460678042013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32640964983918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09057280148667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61649744086881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15635337026779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75069927467406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0455850375468336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08374943782855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16390809548206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95022411048769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02191540564313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.107208438298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1362638008156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626615050969612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273057320035188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0587906599746173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.297420540721121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147137893488095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0123967257094593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302105413216787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243081135767022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0750808899478827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459598056131334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.304511144607255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.269686008184707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129055879544152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199391297672309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154405695822636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647116955492093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501727671547843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.329843395390639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226247691389307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327056074644076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.200396129152469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227269411507864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10002935760493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0122586229122613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152189365451082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0504668117565687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.029156086327176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128063689020297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00634682403094185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0608296024844894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131405601120549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101879820133917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.074469257093434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0246954041874221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0502985711832167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00291524782014697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.269145633450935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171968362750048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18497386588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0976054295049052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143948362542027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0517251937104969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2564478094995</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -760,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -780,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -811,16 +811,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -851,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -871,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -880,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -900,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -911,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -923,7 +923,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -931,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -940,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -951,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -960,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -991,16 +991,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1011,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1020,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1103,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1111,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1120,10 +1120,10 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -1140,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1180,10 +1180,10 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
         <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
@@ -1243,7 +1243,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -1263,7 +1263,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -1283,7 +1283,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1303,7 +1303,7 @@
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -1323,7 +1323,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1351,7 +1351,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1411,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -1443,7 +1443,7 @@
         <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1451,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -1463,7 +1463,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1491,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1503,7 +1503,7 @@
         <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -1511,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -1591,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -1603,7 +1603,7 @@
         <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
@@ -1623,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1631,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -1651,7 +1651,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
@@ -1663,7 +1663,7 @@
         <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -1671,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -1803,7 +1803,7 @@
         <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1863,7 +1863,7 @@
         <v>67</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -1891,7 +1891,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -1931,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -1971,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -1991,7 +1991,7 @@
         <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -2011,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -2031,7 +2031,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2051,7 +2051,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -2071,7 +2071,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -2111,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -2131,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2171,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -2191,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -2211,7 +2211,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
